--- a/WebAPI/GSOP.Interfaces.API.Test.Integrations/Assets/MariaSoelUploadDataTest.xlsx
+++ b/WebAPI/GSOP.Interfaces.API.Test.Integrations/Assets/MariaSoelUploadDataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\geoinformation-system-of-optimal-planning\WebAPI\GSOP.Interfaces.API.Test.Integrations\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5645D-3C9F-4629-95A3-A20C286F84F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4708D65A-E269-494C-A4A6-BFA5B7A0B530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3F964C94-F0DC-451B-9B82-1F291A0CA648}"/>
   </bookViews>
@@ -30,6 +30,7 @@
   <definedNames>
     <definedName name="q">[1]Rezeptur!$A$1:$A$126</definedName>
     <definedName name="Rezeptaktiv">'[2]Master Data'!$U$5:$U$28</definedName>
+    <definedName name="ssss">[1]Rezeptur!$A$1:$E$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="248">
   <si>
     <t>Name</t>
   </si>
@@ -779,6 +780,45 @@
   </si>
   <si>
     <t>ESDD-T-50-445</t>
+  </si>
+  <si>
+    <t>Globus</t>
+  </si>
+  <si>
+    <t>Maria Soell</t>
+  </si>
+  <si>
+    <t>Europex</t>
+  </si>
+  <si>
+    <t>HTF</t>
+  </si>
+  <si>
+    <t>Eurobag</t>
+  </si>
+  <si>
+    <t>Baltic Swan</t>
+  </si>
+  <si>
+    <t>BEMA</t>
+  </si>
+  <si>
+    <t>Vervo</t>
+  </si>
+  <si>
+    <t>Baltic Pack</t>
+  </si>
+  <si>
+    <t>Duet</t>
+  </si>
+  <si>
+    <t>ESB-S400</t>
+  </si>
+  <si>
+    <t>ESB-S200</t>
+  </si>
+  <si>
+    <t>ESB-S280</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1278,6 +1318,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard 5" xfId="1" xr:uid="{7AF8557D-CE33-44A8-993D-32F34CDDE5B2}"/>
@@ -1307,636 +1348,2150 @@
       <sheetName val="Wochenplan_HTF 28.09.2016"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Bezeichnung 1</v>
           </cell>
+          <cell r="B1" t="str">
+            <v>Fertigungsbreite Produkt</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Kalibrierungsdurchmesser</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Düseneinsätze:</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Kühllippe</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>[mm]</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>[DN]</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>[DN]</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>[DN]</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>ESM-S200</v>
           </cell>
+          <cell r="B3">
+            <v>210</v>
+          </cell>
+          <cell r="C3">
+            <v>52.5</v>
+          </cell>
+          <cell r="D3">
+            <v>80</v>
+          </cell>
+          <cell r="E3">
+            <v>350</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>ESM-S230</v>
           </cell>
+          <cell r="B4">
+            <v>240</v>
+          </cell>
+          <cell r="C4">
+            <v>56.8</v>
+          </cell>
+          <cell r="D4">
+            <v>80</v>
+          </cell>
+          <cell r="E4">
+            <v>350</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>ESM-S250</v>
           </cell>
+          <cell r="B5">
+            <v>260</v>
+          </cell>
+          <cell r="C5">
+            <v>63.5</v>
+          </cell>
+          <cell r="D5">
+            <v>80</v>
+          </cell>
+          <cell r="E5">
+            <v>350</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
             <v>ESM-S300</v>
           </cell>
+          <cell r="B6">
+            <v>310</v>
+          </cell>
+          <cell r="C6">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D6">
+            <v>100</v>
+          </cell>
+          <cell r="E6">
+            <v>350</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>ESM-S350</v>
           </cell>
+          <cell r="B7">
+            <v>360</v>
+          </cell>
+          <cell r="C7">
+            <v>83</v>
+          </cell>
+          <cell r="D7">
+            <v>100</v>
+          </cell>
+          <cell r="E7">
+            <v>350</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>ESM-S400</v>
           </cell>
+          <cell r="B8">
+            <v>410</v>
+          </cell>
+          <cell r="C8">
+            <v>95</v>
+          </cell>
+          <cell r="D8">
+            <v>140</v>
+          </cell>
+          <cell r="E8">
+            <v>500</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>ESM-S450</v>
           </cell>
+          <cell r="B9">
+            <v>465</v>
+          </cell>
+          <cell r="C9">
+            <v>105</v>
+          </cell>
+          <cell r="D9">
+            <v>140</v>
+          </cell>
+          <cell r="E9">
+            <v>500</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
             <v>ESM-S500</v>
           </cell>
+          <cell r="B10">
+            <v>515</v>
+          </cell>
+          <cell r="C10">
+            <v>115</v>
+          </cell>
+          <cell r="D10">
+            <v>140</v>
+          </cell>
+          <cell r="E10">
+            <v>500</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>ESM-S550</v>
           </cell>
+          <cell r="B11">
+            <v>565</v>
+          </cell>
+          <cell r="C11">
+            <v>130</v>
+          </cell>
+          <cell r="D11">
+            <v>180</v>
+          </cell>
+          <cell r="E11">
+            <v>500</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>ESM-S600</v>
           </cell>
+          <cell r="B12">
+            <v>620</v>
+          </cell>
+          <cell r="C12">
+            <v>145.5</v>
+          </cell>
+          <cell r="D12">
+            <v>180</v>
+          </cell>
+          <cell r="E12">
+            <v>500</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>ESM-S650</v>
           </cell>
+          <cell r="B13">
+            <v>670</v>
+          </cell>
+          <cell r="C13">
+            <v>145.5</v>
+          </cell>
+          <cell r="D13">
+            <v>180</v>
+          </cell>
+          <cell r="E13">
+            <v>500</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
             <v>ESM-S700</v>
           </cell>
+          <cell r="B14">
+            <v>720</v>
+          </cell>
+          <cell r="C14">
+            <v>145.5</v>
+          </cell>
+          <cell r="D14">
+            <v>180</v>
+          </cell>
+          <cell r="E14">
+            <v>500</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
             <v>ESM-M200</v>
           </cell>
+          <cell r="B15">
+            <v>210</v>
+          </cell>
+          <cell r="C15">
+            <v>52.5</v>
+          </cell>
+          <cell r="D15">
+            <v>80</v>
+          </cell>
+          <cell r="E15">
+            <v>350</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>ESM-M205</v>
           </cell>
+          <cell r="B16">
+            <v>215</v>
+          </cell>
+          <cell r="C16">
+            <v>52.5</v>
+          </cell>
+          <cell r="D16">
+            <v>80</v>
+          </cell>
+          <cell r="E16">
+            <v>350</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>ESM-M210</v>
           </cell>
+          <cell r="B17">
+            <v>220</v>
+          </cell>
+          <cell r="C17">
+            <v>52.5</v>
+          </cell>
+          <cell r="D17">
+            <v>80</v>
+          </cell>
+          <cell r="E17">
+            <v>350</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
             <v>ESM-M230</v>
           </cell>
+          <cell r="B18">
+            <v>240</v>
+          </cell>
+          <cell r="C18">
+            <v>56.8</v>
+          </cell>
+          <cell r="D18">
+            <v>80</v>
+          </cell>
+          <cell r="E18">
+            <v>350</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>ESM-M250</v>
           </cell>
+          <cell r="B19">
+            <v>260</v>
+          </cell>
+          <cell r="C19">
+            <v>63.5</v>
+          </cell>
+          <cell r="D19">
+            <v>80</v>
+          </cell>
+          <cell r="E19">
+            <v>350</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>ESM-M255</v>
           </cell>
+          <cell r="B20">
+            <v>265</v>
+          </cell>
+          <cell r="C20">
+            <v>63.5</v>
+          </cell>
+          <cell r="D20">
+            <v>80</v>
+          </cell>
+          <cell r="E20">
+            <v>350</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>ESM-M280</v>
           </cell>
+          <cell r="B21">
+            <v>290</v>
+          </cell>
+          <cell r="C21">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D21">
+            <v>100</v>
+          </cell>
+          <cell r="E21">
+            <v>350</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>ESM-M300</v>
           </cell>
+          <cell r="B22">
+            <v>310</v>
+          </cell>
+          <cell r="C22">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D22">
+            <v>100</v>
+          </cell>
+          <cell r="E22">
+            <v>350</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
             <v>ESM-M305</v>
           </cell>
+          <cell r="B23">
+            <v>315</v>
+          </cell>
+          <cell r="C23">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D23">
+            <v>100</v>
+          </cell>
+          <cell r="E23">
+            <v>350</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
             <v>ESM-M330</v>
           </cell>
+          <cell r="B24">
+            <v>340</v>
+          </cell>
+          <cell r="C24">
+            <v>83</v>
+          </cell>
+          <cell r="D24">
+            <v>100</v>
+          </cell>
+          <cell r="E24">
+            <v>350</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>ESM-M350</v>
           </cell>
+          <cell r="B25">
+            <v>360</v>
+          </cell>
+          <cell r="C25">
+            <v>83</v>
+          </cell>
+          <cell r="D25">
+            <v>100</v>
+          </cell>
+          <cell r="E25">
+            <v>350</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
             <v>ESM-M400</v>
           </cell>
+          <cell r="B26">
+            <v>410</v>
+          </cell>
+          <cell r="C26">
+            <v>95</v>
+          </cell>
+          <cell r="D26">
+            <v>140</v>
+          </cell>
+          <cell r="E26">
+            <v>500</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
             <v>ESM-M410</v>
           </cell>
+          <cell r="B27">
+            <v>420</v>
+          </cell>
+          <cell r="C27">
+            <v>95</v>
+          </cell>
+          <cell r="D27">
+            <v>140</v>
+          </cell>
+          <cell r="E27">
+            <v>500</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
             <v>ESM-M425</v>
           </cell>
+          <cell r="B28">
+            <v>435</v>
+          </cell>
+          <cell r="C28">
+            <v>95</v>
+          </cell>
+          <cell r="D28">
+            <v>140</v>
+          </cell>
+          <cell r="E28">
+            <v>500</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
             <v>ESM-M450</v>
           </cell>
+          <cell r="B29">
+            <v>465</v>
+          </cell>
+          <cell r="C29">
+            <v>105</v>
+          </cell>
+          <cell r="D29">
+            <v>140</v>
+          </cell>
+          <cell r="E29">
+            <v>500</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
             <v>ESM-M500</v>
           </cell>
+          <cell r="B30">
+            <v>515</v>
+          </cell>
+          <cell r="C30">
+            <v>115</v>
+          </cell>
+          <cell r="D30">
+            <v>140</v>
+          </cell>
+          <cell r="E30">
+            <v>500</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>ESM-M600</v>
           </cell>
+          <cell r="B31">
+            <v>620</v>
+          </cell>
+          <cell r="C31">
+            <v>145.5</v>
+          </cell>
+          <cell r="D31">
+            <v>180</v>
+          </cell>
+          <cell r="E31">
+            <v>500</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
             <v>ESM-L200</v>
           </cell>
+          <cell r="B32">
+            <v>210</v>
+          </cell>
+          <cell r="C32">
+            <v>52.5</v>
+          </cell>
+          <cell r="D32">
+            <v>80</v>
+          </cell>
+          <cell r="E32">
+            <v>350</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
             <v>ESM-L215</v>
           </cell>
+          <cell r="B33">
+            <v>225</v>
+          </cell>
+          <cell r="C33">
+            <v>56.8</v>
+          </cell>
+          <cell r="D33">
+            <v>80</v>
+          </cell>
+          <cell r="E33">
+            <v>350</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
             <v>ESM-L230</v>
           </cell>
+          <cell r="B34">
+            <v>240</v>
+          </cell>
+          <cell r="C34">
+            <v>63.5</v>
+          </cell>
+          <cell r="D34">
+            <v>80</v>
+          </cell>
+          <cell r="E34">
+            <v>350</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
             <v>ESM-L250</v>
           </cell>
+          <cell r="B35">
+            <v>260</v>
+          </cell>
+          <cell r="C35">
+            <v>63.5</v>
+          </cell>
+          <cell r="D35">
+            <v>80</v>
+          </cell>
+          <cell r="E35">
+            <v>350</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
             <v>ESM-L320</v>
           </cell>
+          <cell r="B36">
+            <v>330</v>
+          </cell>
+          <cell r="C36">
+            <v>83</v>
+          </cell>
+          <cell r="D36">
+            <v>100</v>
+          </cell>
+          <cell r="E36">
+            <v>350</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
             <v>ESM-L350</v>
           </cell>
+          <cell r="B37">
+            <v>360</v>
+          </cell>
+          <cell r="C37">
+            <v>83</v>
+          </cell>
+          <cell r="D37">
+            <v>100</v>
+          </cell>
+          <cell r="E37">
+            <v>350</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
             <v>ESM-XL250</v>
           </cell>
+          <cell r="B38">
+            <v>260</v>
+          </cell>
+          <cell r="C38">
+            <v>63.5</v>
+          </cell>
+          <cell r="D38">
+            <v>80</v>
+          </cell>
+          <cell r="E38">
+            <v>350</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
             <v>ESM-XL450</v>
           </cell>
+          <cell r="B39">
+            <v>465</v>
+          </cell>
+          <cell r="C39">
+            <v>105</v>
+          </cell>
+          <cell r="D39">
+            <v>140</v>
+          </cell>
+          <cell r="E39">
+            <v>500</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
             <v>ESM-XL500</v>
           </cell>
+          <cell r="B40">
+            <v>515</v>
+          </cell>
+          <cell r="C40">
+            <v>115</v>
+          </cell>
+          <cell r="D40">
+            <v>140</v>
+          </cell>
+          <cell r="E40">
+            <v>500</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
             <v>ESM-XL600</v>
           </cell>
+          <cell r="B41">
+            <v>620</v>
+          </cell>
+          <cell r="C41">
+            <v>145.5</v>
+          </cell>
+          <cell r="D41">
+            <v>180</v>
+          </cell>
+          <cell r="E41">
+            <v>500</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
             <v>ESC-MD180</v>
           </cell>
+          <cell r="B42">
+            <v>180</v>
+          </cell>
+          <cell r="C42">
+            <v>52.5</v>
+          </cell>
+          <cell r="D42">
+            <v>80</v>
+          </cell>
+          <cell r="E42">
+            <v>350</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
             <v>ESC-MD200</v>
           </cell>
+          <cell r="B43">
+            <v>200</v>
+          </cell>
+          <cell r="C43">
+            <v>52.5</v>
+          </cell>
+          <cell r="D43">
+            <v>80</v>
+          </cell>
+          <cell r="E43">
+            <v>350</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
             <v>ESC-MD210</v>
           </cell>
+          <cell r="B44">
+            <v>210</v>
+          </cell>
+          <cell r="C44">
+            <v>52.5</v>
+          </cell>
+          <cell r="D44">
+            <v>80</v>
+          </cell>
+          <cell r="E44">
+            <v>350</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
             <v>ESC-MD230</v>
           </cell>
+          <cell r="B45">
+            <v>230</v>
+          </cell>
+          <cell r="C45">
+            <v>56.8</v>
+          </cell>
+          <cell r="D45">
+            <v>80</v>
+          </cell>
+          <cell r="E45">
+            <v>350</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
             <v>ESC-MD250</v>
           </cell>
+          <cell r="B46">
+            <v>250</v>
+          </cell>
+          <cell r="C46">
+            <v>63.5</v>
+          </cell>
+          <cell r="D46">
+            <v>80</v>
+          </cell>
+          <cell r="E46">
+            <v>350</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
             <v>ESC-MD280</v>
           </cell>
+          <cell r="B47">
+            <v>280</v>
+          </cell>
+          <cell r="C47">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D47">
+            <v>100</v>
+          </cell>
+          <cell r="E47">
+            <v>350</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
             <v>ESC-MD300</v>
           </cell>
+          <cell r="B48">
+            <v>300</v>
+          </cell>
+          <cell r="C48">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D48">
+            <v>100</v>
+          </cell>
+          <cell r="E48">
+            <v>350</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
             <v>ESC-MD325</v>
           </cell>
+          <cell r="B49">
+            <v>325</v>
+          </cell>
+          <cell r="C49">
+            <v>83</v>
+          </cell>
+          <cell r="D49">
+            <v>100</v>
+          </cell>
+          <cell r="E49">
+            <v>350</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
             <v>ESC-MD350</v>
           </cell>
+          <cell r="B50">
+            <v>350</v>
+          </cell>
+          <cell r="C50">
+            <v>83</v>
+          </cell>
+          <cell r="D50">
+            <v>100</v>
+          </cell>
+          <cell r="E50">
+            <v>350</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
             <v>ESC-MD375</v>
           </cell>
+          <cell r="B51">
+            <v>375</v>
+          </cell>
+          <cell r="C51">
+            <v>95</v>
+          </cell>
+          <cell r="D51">
+            <v>140</v>
+          </cell>
+          <cell r="E51">
+            <v>500</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
             <v>ESC-MD385</v>
           </cell>
+          <cell r="B52">
+            <v>385</v>
+          </cell>
+          <cell r="C52">
+            <v>95</v>
+          </cell>
+          <cell r="D52">
+            <v>140</v>
+          </cell>
+          <cell r="E52">
+            <v>500</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
             <v>ESC-MD400</v>
           </cell>
+          <cell r="B53">
+            <v>400</v>
+          </cell>
+          <cell r="C53">
+            <v>105</v>
+          </cell>
+          <cell r="D53">
+            <v>140</v>
+          </cell>
+          <cell r="E53">
+            <v>500</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
             <v>ESC-MD425</v>
           </cell>
+          <cell r="B54">
+            <v>425</v>
+          </cell>
+          <cell r="C54">
+            <v>105</v>
+          </cell>
+          <cell r="D54">
+            <v>140</v>
+          </cell>
+          <cell r="E54">
+            <v>500</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
             <v>ESC-MD450</v>
           </cell>
+          <cell r="B55">
+            <v>450</v>
+          </cell>
+          <cell r="C55">
+            <v>115</v>
+          </cell>
+          <cell r="D55">
+            <v>140</v>
+          </cell>
+          <cell r="E55">
+            <v>500</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
             <v>ESC-MD500</v>
           </cell>
+          <cell r="B56">
+            <v>500</v>
+          </cell>
+          <cell r="C56">
+            <v>130</v>
+          </cell>
+          <cell r="D56">
+            <v>180</v>
+          </cell>
+          <cell r="E56">
+            <v>500</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
             <v>ESC-MD550</v>
           </cell>
+          <cell r="B57">
+            <v>550</v>
+          </cell>
+          <cell r="C57">
+            <v>130</v>
+          </cell>
+          <cell r="D57">
+            <v>180</v>
+          </cell>
+          <cell r="E57">
+            <v>500</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
             <v>ESC-MD600</v>
           </cell>
+          <cell r="B58">
+            <v>600</v>
+          </cell>
+          <cell r="C58">
+            <v>130</v>
+          </cell>
+          <cell r="D58">
+            <v>180</v>
+          </cell>
+          <cell r="E58">
+            <v>500</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
             <v>ESC-MD650</v>
           </cell>
+          <cell r="B59">
+            <v>650</v>
+          </cell>
+          <cell r="C59">
+            <v>130</v>
+          </cell>
+          <cell r="D59">
+            <v>180</v>
+          </cell>
+          <cell r="E59">
+            <v>500</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
             <v>ESC-MD700</v>
           </cell>
+          <cell r="B60">
+            <v>700</v>
+          </cell>
+          <cell r="C60">
+            <v>130</v>
+          </cell>
+          <cell r="D60">
+            <v>180</v>
+          </cell>
+          <cell r="E60">
+            <v>500</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
             <v>ESC-HD180</v>
           </cell>
+          <cell r="B61">
+            <v>180</v>
+          </cell>
+          <cell r="C61">
+            <v>52.5</v>
+          </cell>
+          <cell r="D61">
+            <v>80</v>
+          </cell>
+          <cell r="E61">
+            <v>350</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
             <v>ESC-HD200</v>
           </cell>
+          <cell r="B62">
+            <v>200</v>
+          </cell>
+          <cell r="C62">
+            <v>52.5</v>
+          </cell>
+          <cell r="D62">
+            <v>80</v>
+          </cell>
+          <cell r="E62">
+            <v>350</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
             <v>ESC-HD230</v>
           </cell>
+          <cell r="B63">
+            <v>230</v>
+          </cell>
+          <cell r="C63">
+            <v>56.8</v>
+          </cell>
+          <cell r="D63">
+            <v>80</v>
+          </cell>
+          <cell r="E63">
+            <v>350</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
             <v>ESC-HD250</v>
           </cell>
+          <cell r="B64">
+            <v>250</v>
+          </cell>
+          <cell r="C64">
+            <v>63.5</v>
+          </cell>
+          <cell r="D64">
+            <v>80</v>
+          </cell>
+          <cell r="E64">
+            <v>350</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
             <v>ESC-HD280</v>
           </cell>
+          <cell r="B65">
+            <v>280</v>
+          </cell>
+          <cell r="C65">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D65">
+            <v>100</v>
+          </cell>
+          <cell r="E65">
+            <v>350</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
             <v>ESC-HD300</v>
           </cell>
+          <cell r="B66">
+            <v>300</v>
+          </cell>
+          <cell r="C66">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D66">
+            <v>100</v>
+          </cell>
+          <cell r="E66">
+            <v>350</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
             <v>ESC-HD325</v>
           </cell>
+          <cell r="B67">
+            <v>325</v>
+          </cell>
+          <cell r="C67">
+            <v>83</v>
+          </cell>
+          <cell r="D67">
+            <v>100</v>
+          </cell>
+          <cell r="E67">
+            <v>350</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
             <v>ESC-HD350</v>
           </cell>
+          <cell r="B68">
+            <v>350</v>
+          </cell>
+          <cell r="C68">
+            <v>83</v>
+          </cell>
+          <cell r="D68">
+            <v>100</v>
+          </cell>
+          <cell r="E68">
+            <v>350</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
             <v>ESC-HD375</v>
           </cell>
+          <cell r="B69">
+            <v>375</v>
+          </cell>
+          <cell r="C69">
+            <v>95</v>
+          </cell>
+          <cell r="D69">
+            <v>140</v>
+          </cell>
+          <cell r="E69">
+            <v>350</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
             <v>ESC-HD400</v>
           </cell>
+          <cell r="B70">
+            <v>400</v>
+          </cell>
+          <cell r="C70">
+            <v>105</v>
+          </cell>
+          <cell r="D70">
+            <v>140</v>
+          </cell>
+          <cell r="E70">
+            <v>500</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
             <v>ESC-HD425</v>
           </cell>
+          <cell r="B71">
+            <v>425</v>
+          </cell>
+          <cell r="C71">
+            <v>105</v>
+          </cell>
+          <cell r="D71">
+            <v>140</v>
+          </cell>
+          <cell r="E71">
+            <v>500</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
             <v>ESC-HD450</v>
           </cell>
+          <cell r="B72">
+            <v>450</v>
+          </cell>
+          <cell r="C72">
+            <v>115</v>
+          </cell>
+          <cell r="D72">
+            <v>140</v>
+          </cell>
+          <cell r="E72">
+            <v>500</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
             <v>ESC-HD500</v>
           </cell>
+          <cell r="B73">
+            <v>500</v>
+          </cell>
+          <cell r="C73">
+            <v>130</v>
+          </cell>
+          <cell r="D73">
+            <v>180</v>
+          </cell>
+          <cell r="E73">
+            <v>500</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
             <v>ESC-HD550</v>
           </cell>
+          <cell r="B74">
+            <v>550</v>
+          </cell>
+          <cell r="C74">
+            <v>130</v>
+          </cell>
+          <cell r="D74">
+            <v>180</v>
+          </cell>
+          <cell r="E74">
+            <v>500</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
             <v>ESC-HD600</v>
           </cell>
+          <cell r="B75">
+            <v>600</v>
+          </cell>
+          <cell r="C75">
+            <v>145.5</v>
+          </cell>
+          <cell r="D75">
+            <v>180</v>
+          </cell>
+          <cell r="E75">
+            <v>500</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
             <v>ESC-HD650</v>
           </cell>
+          <cell r="B76">
+            <v>650</v>
+          </cell>
+          <cell r="C76">
+            <v>145.5</v>
+          </cell>
+          <cell r="D76">
+            <v>180</v>
+          </cell>
+          <cell r="E76">
+            <v>500</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
             <v>ESC-HD700</v>
           </cell>
+          <cell r="B77">
+            <v>700</v>
+          </cell>
+          <cell r="C77">
+            <v>145.5</v>
+          </cell>
+          <cell r="D77">
+            <v>180</v>
+          </cell>
+          <cell r="E77">
+            <v>500</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
             <v>ESDD-130</v>
           </cell>
+          <cell r="B78">
+            <v>130</v>
+          </cell>
+          <cell r="C78">
+            <v>52.5</v>
+          </cell>
+          <cell r="D78">
+            <v>80</v>
+          </cell>
+          <cell r="E78">
+            <v>350</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
             <v>ESDD-140</v>
           </cell>
+          <cell r="B79">
+            <v>140</v>
+          </cell>
+          <cell r="C79">
+            <v>56.8</v>
+          </cell>
+          <cell r="D79">
+            <v>80</v>
+          </cell>
+          <cell r="E79">
+            <v>350</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
             <v>ESDD-160</v>
           </cell>
+          <cell r="B80">
+            <v>160</v>
+          </cell>
+          <cell r="C80">
+            <v>63.5</v>
+          </cell>
+          <cell r="D80">
+            <v>80</v>
+          </cell>
+          <cell r="E80">
+            <v>350</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
             <v>ESDD-200</v>
           </cell>
+          <cell r="B81">
+            <v>200</v>
+          </cell>
+          <cell r="C81">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D81">
+            <v>100</v>
+          </cell>
+          <cell r="E81">
+            <v>350</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
             <v>ESDD-225</v>
           </cell>
+          <cell r="B82">
+            <v>225</v>
+          </cell>
+          <cell r="C82">
+            <v>83</v>
+          </cell>
+          <cell r="D82">
+            <v>100</v>
+          </cell>
+          <cell r="E82">
+            <v>350</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
             <v>ESDD-255</v>
           </cell>
+          <cell r="B83">
+            <v>255</v>
+          </cell>
+          <cell r="C83">
+            <v>95</v>
+          </cell>
+          <cell r="D83">
+            <v>140</v>
+          </cell>
+          <cell r="E83">
+            <v>350</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
             <v>ESDD-280</v>
           </cell>
+          <cell r="B84">
+            <v>280</v>
+          </cell>
+          <cell r="C84">
+            <v>105</v>
+          </cell>
+          <cell r="D84">
+            <v>140</v>
+          </cell>
+          <cell r="E84">
+            <v>350</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
             <v>ESDD-320</v>
           </cell>
+          <cell r="B85">
+            <v>320</v>
+          </cell>
+          <cell r="C85">
+            <v>115</v>
+          </cell>
+          <cell r="D85">
+            <v>140</v>
+          </cell>
+          <cell r="E85">
+            <v>350</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
             <v>ESDD-350</v>
           </cell>
+          <cell r="B86">
+            <v>350</v>
+          </cell>
+          <cell r="C86">
+            <v>130</v>
+          </cell>
+          <cell r="D86">
+            <v>180</v>
+          </cell>
+          <cell r="E86">
+            <v>350</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
             <v>ESDD-360</v>
           </cell>
+          <cell r="B87">
+            <v>360</v>
+          </cell>
+          <cell r="C87">
+            <v>130</v>
+          </cell>
+          <cell r="D87">
+            <v>180</v>
+          </cell>
+          <cell r="E87">
+            <v>350</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
             <v>ESDD-370</v>
           </cell>
+          <cell r="B88">
+            <v>370</v>
+          </cell>
+          <cell r="C88">
+            <v>130</v>
+          </cell>
+          <cell r="D88">
+            <v>180</v>
+          </cell>
+          <cell r="E88">
+            <v>500</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
             <v>ESDD-400</v>
           </cell>
+          <cell r="B89">
+            <v>400</v>
+          </cell>
+          <cell r="C89">
+            <v>145.5</v>
+          </cell>
+          <cell r="D89">
+            <v>180</v>
+          </cell>
+          <cell r="E89">
+            <v>500</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
             <v>ESDD-423</v>
           </cell>
+          <cell r="B90">
+            <v>423</v>
+          </cell>
+          <cell r="C90">
+            <v>160</v>
+          </cell>
+          <cell r="D90">
+            <v>180</v>
+          </cell>
+          <cell r="E90">
+            <v>500</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
             <v>ESDD-480</v>
           </cell>
+          <cell r="B91">
+            <v>480</v>
+          </cell>
+          <cell r="C91">
+            <v>160</v>
+          </cell>
+          <cell r="D91">
+            <v>180</v>
+          </cell>
+          <cell r="E91">
+            <v>500</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
             <v>ESDD-500</v>
           </cell>
+          <cell r="B92">
+            <v>500</v>
+          </cell>
+          <cell r="C92">
+            <v>160</v>
+          </cell>
+          <cell r="D92">
+            <v>180</v>
+          </cell>
+          <cell r="E92">
+            <v>500</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
             <v>ESDD-525</v>
           </cell>
+          <cell r="B93">
+            <v>525</v>
+          </cell>
+          <cell r="C93">
+            <v>160</v>
+          </cell>
+          <cell r="D93">
+            <v>180</v>
+          </cell>
+          <cell r="E93">
+            <v>500</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
             <v>ESB-XS 200</v>
           </cell>
+          <cell r="B94">
+            <v>205</v>
+          </cell>
+          <cell r="C94">
+            <v>52.5</v>
+          </cell>
+          <cell r="D94">
+            <v>80</v>
+          </cell>
+          <cell r="E94">
+            <v>350</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
             <v>ESB-XS 250</v>
           </cell>
+          <cell r="B95">
+            <v>257</v>
+          </cell>
+          <cell r="C95">
+            <v>63.5</v>
+          </cell>
+          <cell r="D95">
+            <v>80</v>
+          </cell>
+          <cell r="E95">
+            <v>350</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
             <v>ESB-XS 300</v>
           </cell>
+          <cell r="B96">
+            <v>308</v>
+          </cell>
+          <cell r="C96">
+            <v>83</v>
+          </cell>
+          <cell r="D96">
+            <v>100</v>
+          </cell>
+          <cell r="E96">
+            <v>350</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
             <v>ESB-S 200</v>
           </cell>
+          <cell r="B97">
+            <v>205</v>
+          </cell>
+          <cell r="C97">
+            <v>52.5</v>
+          </cell>
+          <cell r="D97">
+            <v>80</v>
+          </cell>
+          <cell r="E97">
+            <v>350</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
             <v>ESB-S 230</v>
           </cell>
+          <cell r="B98">
+            <v>236</v>
+          </cell>
+          <cell r="C98">
+            <v>63.5</v>
+          </cell>
+          <cell r="D98">
+            <v>80</v>
+          </cell>
+          <cell r="E98">
+            <v>350</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
             <v>ESB-S 250</v>
           </cell>
+          <cell r="B99">
+            <v>257</v>
+          </cell>
+          <cell r="C99">
+            <v>63.5</v>
+          </cell>
+          <cell r="D99">
+            <v>80</v>
+          </cell>
+          <cell r="E99">
+            <v>350</v>
+          </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
             <v>ESB-S 280</v>
           </cell>
+          <cell r="B100">
+            <v>287</v>
+          </cell>
+          <cell r="C100">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D100">
+            <v>100</v>
+          </cell>
+          <cell r="E100">
+            <v>350</v>
+          </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
             <v>ESB-S 300</v>
           </cell>
+          <cell r="B101">
+            <v>308</v>
+          </cell>
+          <cell r="C101">
+            <v>83</v>
+          </cell>
+          <cell r="D101">
+            <v>100</v>
+          </cell>
+          <cell r="E101">
+            <v>350</v>
+          </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
             <v>ESB-S350</v>
           </cell>
+          <cell r="B102">
+            <v>359</v>
+          </cell>
+          <cell r="C102">
+            <v>95</v>
+          </cell>
+          <cell r="D102">
+            <v>140</v>
+          </cell>
+          <cell r="E102">
+            <v>350</v>
+          </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
             <v>ESB-S 400</v>
           </cell>
+          <cell r="B103">
+            <v>410</v>
+          </cell>
+          <cell r="C103">
+            <v>105</v>
+          </cell>
+          <cell r="D103">
+            <v>140</v>
+          </cell>
+          <cell r="E103">
+            <v>500</v>
+          </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
             <v>ESB-S 425</v>
           </cell>
+          <cell r="B104">
+            <v>435</v>
+          </cell>
+          <cell r="C104">
+            <v>105</v>
+          </cell>
+          <cell r="D104">
+            <v>140</v>
+          </cell>
+          <cell r="E104">
+            <v>500</v>
+          </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
             <v>ESB-S 450</v>
           </cell>
+          <cell r="B105">
+            <v>460</v>
+          </cell>
+          <cell r="C105">
+            <v>115</v>
+          </cell>
+          <cell r="D105">
+            <v>140</v>
+          </cell>
+          <cell r="E105">
+            <v>500</v>
+          </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
             <v>ESB-M 250</v>
           </cell>
+          <cell r="B106">
+            <v>257</v>
+          </cell>
+          <cell r="C106">
+            <v>63.5</v>
+          </cell>
+          <cell r="D106">
+            <v>80</v>
+          </cell>
+          <cell r="E106">
+            <v>350</v>
+          </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
             <v>ESB-M 255</v>
           </cell>
+          <cell r="B107">
+            <v>262</v>
+          </cell>
+          <cell r="C107">
+            <v>63.5</v>
+          </cell>
+          <cell r="D107">
+            <v>80</v>
+          </cell>
+          <cell r="E107">
+            <v>350</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
             <v>ESB-M 280</v>
           </cell>
+          <cell r="B108">
+            <v>287</v>
+          </cell>
+          <cell r="C108">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D108">
+            <v>100</v>
+          </cell>
+          <cell r="E108">
+            <v>350</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
             <v>ESB-M 300</v>
           </cell>
+          <cell r="B109">
+            <v>308</v>
+          </cell>
+          <cell r="C109">
+            <v>83</v>
+          </cell>
+          <cell r="D109">
+            <v>100</v>
+          </cell>
+          <cell r="E109">
+            <v>350</v>
+          </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
             <v>ESB-M 350</v>
           </cell>
+          <cell r="B110">
+            <v>359</v>
+          </cell>
+          <cell r="C110">
+            <v>95</v>
+          </cell>
+          <cell r="D110">
+            <v>140</v>
+          </cell>
+          <cell r="E110">
+            <v>350</v>
+          </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
             <v>ESB-M 400</v>
           </cell>
+          <cell r="B111">
+            <v>410</v>
+          </cell>
+          <cell r="C111">
+            <v>105</v>
+          </cell>
+          <cell r="D111">
+            <v>140</v>
+          </cell>
+          <cell r="E111">
+            <v>500</v>
+          </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
             <v>ESB-L 200</v>
           </cell>
+          <cell r="B112">
+            <v>205</v>
+          </cell>
+          <cell r="C112">
+            <v>52.5</v>
+          </cell>
+          <cell r="D112">
+            <v>80</v>
+          </cell>
+          <cell r="E112">
+            <v>350</v>
+          </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
             <v>ESB-L 205</v>
           </cell>
+          <cell r="B113">
+            <v>210</v>
+          </cell>
+          <cell r="C113">
+            <v>52.5</v>
+          </cell>
+          <cell r="D113">
+            <v>80</v>
+          </cell>
+          <cell r="E113">
+            <v>350</v>
+          </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
             <v>ESB-L 230</v>
           </cell>
+          <cell r="B114">
+            <v>236</v>
+          </cell>
+          <cell r="C114">
+            <v>63.5</v>
+          </cell>
+          <cell r="D114">
+            <v>80</v>
+          </cell>
+          <cell r="E114">
+            <v>350</v>
+          </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
             <v>ESB-L 250</v>
           </cell>
+          <cell r="B115">
+            <v>257</v>
+          </cell>
+          <cell r="C115">
+            <v>63.5</v>
+          </cell>
+          <cell r="D115">
+            <v>80</v>
+          </cell>
+          <cell r="E115">
+            <v>350</v>
+          </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
             <v>ESB-L 255</v>
           </cell>
+          <cell r="B116">
+            <v>262</v>
+          </cell>
+          <cell r="C116">
+            <v>63.5</v>
+          </cell>
+          <cell r="D116">
+            <v>80</v>
+          </cell>
+          <cell r="E116">
+            <v>350</v>
+          </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
             <v>ESB-L 280</v>
           </cell>
+          <cell r="B117">
+            <v>287</v>
+          </cell>
+          <cell r="C117">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="D117">
+            <v>100</v>
+          </cell>
+          <cell r="E117">
+            <v>350</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
             <v>ESB-L 300</v>
           </cell>
+          <cell r="B118">
+            <v>308</v>
+          </cell>
+          <cell r="C118">
+            <v>83</v>
+          </cell>
+          <cell r="D118">
+            <v>100</v>
+          </cell>
+          <cell r="E118">
+            <v>350</v>
+          </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
             <v>ESB-L 305</v>
           </cell>
+          <cell r="B119">
+            <v>315</v>
+          </cell>
+          <cell r="C119">
+            <v>83</v>
+          </cell>
+          <cell r="D119">
+            <v>100</v>
+          </cell>
+          <cell r="E119">
+            <v>350</v>
+          </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
             <v>ESB-L 325</v>
           </cell>
+          <cell r="B120">
+            <v>335</v>
+          </cell>
+          <cell r="C120">
+            <v>83</v>
+          </cell>
+          <cell r="D120">
+            <v>100</v>
+          </cell>
+          <cell r="E120">
+            <v>350</v>
+          </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
             <v>ESB-L 330</v>
           </cell>
+          <cell r="B121">
+            <v>338</v>
+          </cell>
+          <cell r="C121">
+            <v>83</v>
+          </cell>
+          <cell r="D121">
+            <v>100</v>
+          </cell>
+          <cell r="E121">
+            <v>350</v>
+          </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
             <v>ESB-L350</v>
           </cell>
+          <cell r="B122">
+            <v>359</v>
+          </cell>
+          <cell r="C122">
+            <v>95</v>
+          </cell>
+          <cell r="D122">
+            <v>140</v>
+          </cell>
+          <cell r="E122">
+            <v>350</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
             <v>ESB-L 400</v>
           </cell>
+          <cell r="B123">
+            <v>410</v>
+          </cell>
+          <cell r="C123">
+            <v>105</v>
+          </cell>
+          <cell r="D123">
+            <v>140</v>
+          </cell>
+          <cell r="E123">
+            <v>500</v>
+          </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
             <v>ESB-L 410</v>
           </cell>
+          <cell r="B124">
+            <v>420</v>
+          </cell>
+          <cell r="C124">
+            <v>105</v>
+          </cell>
+          <cell r="D124">
+            <v>140</v>
+          </cell>
+          <cell r="E124">
+            <v>500</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
             <v>ESB-L 450</v>
           </cell>
+          <cell r="B125">
+            <v>460</v>
+          </cell>
+          <cell r="C125">
+            <v>115</v>
+          </cell>
+          <cell r="D125">
+            <v>140</v>
+          </cell>
+          <cell r="E125">
+            <v>500</v>
+          </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
             <v>ESB-L 500</v>
           </cell>
+          <cell r="B126">
+            <v>510</v>
+          </cell>
+          <cell r="C126">
+            <v>130</v>
+          </cell>
+          <cell r="D126">
+            <v>140</v>
+          </cell>
+          <cell r="E126">
+            <v>500</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2434,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154BD0A6-AD3D-47EC-AA33-B68AD9D72646}">
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6782,7 +8337,7 @@
   <dimension ref="A1:K319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I117" sqref="I2:I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,1789 +10246,2778 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="44">
-        <v>101520</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="40"/>
-      <c r="F60" s="39"/>
+        <v>101586</v>
+      </c>
+      <c r="B60" s="33">
+        <v>335</v>
+      </c>
+      <c r="C60" s="23">
+        <v>128000</v>
+      </c>
+      <c r="D60" s="40">
+        <v>9052</v>
+      </c>
+      <c r="E60" s="39">
+        <v>148</v>
+      </c>
+      <c r="F60" s="39">
+        <v>12</v>
+      </c>
       <c r="G60" s="26"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" s="22">
+        <v>42653.520833333336</v>
+      </c>
+      <c r="J60" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="K60" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="44">
-        <v>101521</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="19"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="39"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101585</v>
+      </c>
+      <c r="B61" s="32">
+        <v>359</v>
+      </c>
+      <c r="C61" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D61">
+        <v>1480</v>
+      </c>
+      <c r="E61" s="39">
+        <v>377</v>
+      </c>
+      <c r="F61" s="39">
+        <v>96</v>
+      </c>
+      <c r="H61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="22">
+        <v>42654.07916666667</v>
+      </c>
+      <c r="J61" s="17">
+        <v>5.8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="44">
-        <v>101522</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="19"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="39"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101596</v>
+      </c>
+      <c r="B62" s="32">
+        <v>359</v>
+      </c>
+      <c r="C62" s="19">
+        <v>14700</v>
+      </c>
+      <c r="D62">
+        <v>906.24</v>
+      </c>
+      <c r="E62" s="39">
+        <v>237</v>
+      </c>
+      <c r="F62" s="39">
+        <v>103</v>
+      </c>
+      <c r="H62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="22">
+        <v>42654.393333333333</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="44">
-        <v>101523</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="19"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101597</v>
+      </c>
+      <c r="B63" s="32">
+        <v>359</v>
+      </c>
+      <c r="C63" s="19">
+        <v>6300</v>
+      </c>
+      <c r="D63">
+        <v>480</v>
+      </c>
+      <c r="E63" s="39">
+        <v>932</v>
+      </c>
+      <c r="F63" s="39">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63" s="22">
+        <v>42654.559999999998</v>
+      </c>
+      <c r="J63" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
-        <v>101524</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="19"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="39"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101587</v>
+      </c>
+      <c r="B64" s="32">
+        <v>359</v>
+      </c>
+      <c r="C64" s="19">
+        <v>304000</v>
+      </c>
+      <c r="D64">
+        <v>23150</v>
+      </c>
+      <c r="E64" s="39">
+        <v>802</v>
+      </c>
+      <c r="F64" s="39">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="22">
+        <v>42662.226666666662</v>
+      </c>
+      <c r="J64" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="44">
-        <v>101525</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="19"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="39"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101589</v>
+      </c>
+      <c r="B65" s="32">
+        <v>435</v>
+      </c>
+      <c r="C65" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D65">
+        <v>805</v>
+      </c>
+      <c r="E65" s="39">
+        <v>57</v>
+      </c>
+      <c r="F65" s="39">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="22">
+        <v>42662.811805555553</v>
+      </c>
+      <c r="J65" s="17">
+        <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
-        <v>101526</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="19"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="39"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101649</v>
+      </c>
+      <c r="B66" s="32">
+        <v>435</v>
+      </c>
+      <c r="C66" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D66">
+        <v>805</v>
+      </c>
+      <c r="E66" s="39">
+        <v>68</v>
+      </c>
+      <c r="F66" s="39">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="22">
+        <v>42663.174722222218</v>
+      </c>
+      <c r="J66" s="17">
+        <v>7.8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="44">
-        <v>101527</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="19"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="39"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101559</v>
+      </c>
+      <c r="B67" s="32">
+        <v>465</v>
+      </c>
+      <c r="C67" s="19">
+        <v>36000</v>
+      </c>
+      <c r="D67">
+        <v>1279</v>
+      </c>
+      <c r="E67" s="39">
+        <v>65</v>
+      </c>
+      <c r="F67" s="39">
+        <v>49</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" s="22">
+        <v>42663.745138888888</v>
+      </c>
+      <c r="J67" s="17">
+        <v>8.1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
-        <v>101530</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="19"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="39"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101543</v>
+      </c>
+      <c r="B68" s="32">
+        <v>465</v>
+      </c>
+      <c r="C68" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D68">
+        <v>356</v>
+      </c>
+      <c r="E68" s="39">
+        <v>359</v>
+      </c>
+      <c r="F68" s="39">
+        <v>48</v>
+      </c>
+      <c r="H68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" s="22">
+        <v>42663.897638888884</v>
+      </c>
+      <c r="J68" s="17">
+        <v>7.9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
-        <v>101531</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="19"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="39"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101650</v>
+      </c>
+      <c r="B69" s="32">
+        <v>465</v>
+      </c>
+      <c r="C69" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D69">
+        <v>853</v>
+      </c>
+      <c r="E69" s="39">
+        <v>744</v>
+      </c>
+      <c r="F69" s="39">
+        <v>53</v>
+      </c>
+      <c r="H69" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69" s="22">
+        <v>42664.260555555549</v>
+      </c>
+      <c r="J69" s="17">
+        <v>9</v>
+      </c>
+      <c r="K69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="44">
-        <v>101532</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="19"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="39"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400134</v>
+      </c>
+      <c r="B70" s="32">
+        <v>465</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+      <c r="E70" s="39">
+        <v>241</v>
+      </c>
+      <c r="F70" s="39">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="22">
+        <v>42664.275555555549</v>
+      </c>
+      <c r="J70" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="44">
-        <v>101533</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="19"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="39"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101590</v>
+      </c>
+      <c r="B71" s="32">
+        <v>465</v>
+      </c>
+      <c r="C71" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D71">
+        <v>947</v>
+      </c>
+      <c r="E71" s="39">
+        <v>65</v>
+      </c>
+      <c r="F71" s="39">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>198</v>
+      </c>
+      <c r="I71" s="22">
+        <v>42664.718055555546</v>
+      </c>
+      <c r="J71" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="K71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
-        <v>101534</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="19"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="39"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101651</v>
+      </c>
+      <c r="B72" s="32">
+        <v>465</v>
+      </c>
+      <c r="C72" s="19">
+        <v>80000</v>
+      </c>
+      <c r="D72">
+        <v>3156</v>
+      </c>
+      <c r="E72" s="39">
+        <v>150</v>
+      </c>
+      <c r="F72" s="39">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s">
+        <v>198</v>
+      </c>
+      <c r="I72" s="22">
+        <v>42666.04138888888</v>
+      </c>
+      <c r="J72" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="K72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
-        <v>101535</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="19"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="39"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101648</v>
+      </c>
+      <c r="B73" s="32">
+        <v>260</v>
+      </c>
+      <c r="C73" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D73">
+        <v>1895</v>
+      </c>
+      <c r="E73" s="39">
+        <v>273</v>
+      </c>
+      <c r="F73" s="39">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>195</v>
+      </c>
+      <c r="I73" s="22">
+        <v>42667.481388888882</v>
+      </c>
+      <c r="J73" s="17">
+        <v>12.2</v>
+      </c>
+      <c r="K73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
-        <v>101536</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="19"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="39"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101647</v>
+      </c>
+      <c r="B74" s="32">
+        <v>240</v>
+      </c>
+      <c r="C74" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D74">
+        <v>1743</v>
+      </c>
+      <c r="E74" s="39">
+        <v>93</v>
+      </c>
+      <c r="F74" s="39">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>194</v>
+      </c>
+      <c r="I74" s="22">
+        <v>42668.858888888884</v>
+      </c>
+      <c r="J74" s="17">
+        <v>12.2</v>
+      </c>
+      <c r="K74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
-        <v>101537</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="19"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="39"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101646</v>
+      </c>
+      <c r="B75" s="32">
+        <v>210</v>
+      </c>
+      <c r="C75" s="19">
+        <v>32000</v>
+      </c>
+      <c r="D75">
+        <v>506</v>
+      </c>
+      <c r="E75" s="39">
+        <v>231</v>
+      </c>
+      <c r="F75" s="39">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I75" s="22">
+        <v>42669.345972222218</v>
+      </c>
+      <c r="J75" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
-        <v>101538</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="19"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="39"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101652</v>
+      </c>
+      <c r="B76" s="32">
+        <v>210</v>
+      </c>
+      <c r="C76" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D76">
+        <v>391</v>
+      </c>
+      <c r="E76" s="39">
+        <v>140</v>
+      </c>
+      <c r="F76" s="39">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="22">
+        <v>42669.742638888885</v>
+      </c>
+      <c r="J76" s="17">
+        <v>12.7</v>
+      </c>
+      <c r="K76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="44">
-        <v>101539</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="19"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="39"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101663</v>
+      </c>
+      <c r="B77" s="32">
+        <v>240</v>
+      </c>
+      <c r="C77" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D77">
+        <v>449</v>
+      </c>
+      <c r="E77" s="39">
+        <v>146</v>
+      </c>
+      <c r="F77" s="39">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="22">
+        <v>42670.121805555551</v>
+      </c>
+      <c r="J77" s="17">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="44">
-        <v>101540</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="19"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="39"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101653</v>
+      </c>
+      <c r="B78" s="32">
+        <v>260</v>
+      </c>
+      <c r="C78" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D78">
+        <v>488</v>
+      </c>
+      <c r="E78" s="39">
+        <v>171</v>
+      </c>
+      <c r="F78" s="39">
+        <v>95</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="22">
+        <v>42670.497638888883</v>
+      </c>
+      <c r="J78" s="17">
+        <v>13.6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="44">
-        <v>101541</v>
-      </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="19"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="39"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101613</v>
+      </c>
+      <c r="B79" s="23">
+        <v>260</v>
+      </c>
+      <c r="C79" s="19">
+        <v>80000</v>
+      </c>
+      <c r="D79">
+        <v>1786.4</v>
+      </c>
+      <c r="E79" s="39">
+        <v>140</v>
+      </c>
+      <c r="F79" s="39">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I79" s="22">
+        <v>42671.621388888881</v>
+      </c>
+      <c r="J79" s="17">
+        <v>14.6</v>
+      </c>
+      <c r="K79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="44">
-        <v>101542</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="19"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="39"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101614</v>
+      </c>
+      <c r="B80" s="23">
+        <v>310</v>
+      </c>
+      <c r="C80" s="19">
+        <v>32000</v>
+      </c>
+      <c r="D80">
+        <v>857.4</v>
+      </c>
+      <c r="E80" s="39">
+        <v>222</v>
+      </c>
+      <c r="F80" s="39">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" s="22">
+        <v>42672.170972222215</v>
+      </c>
+      <c r="J80" s="17">
+        <v>14.5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="44">
-        <v>101543</v>
-      </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="19"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="39"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101620</v>
+      </c>
+      <c r="B81" s="23">
+        <v>310</v>
+      </c>
+      <c r="C81" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D81">
+        <v>2572</v>
+      </c>
+      <c r="E81" s="39">
+        <v>643</v>
+      </c>
+      <c r="F81" s="39">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" s="22">
+        <v>42673.520138888882</v>
+      </c>
+      <c r="J81" s="17">
+        <v>15.1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="44">
-        <v>101544</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="19"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="39"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101632</v>
+      </c>
+      <c r="B82" s="23">
+        <v>310</v>
+      </c>
+      <c r="C82" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D82">
+        <v>586</v>
+      </c>
+      <c r="E82" s="40">
+        <v>1501</v>
+      </c>
+      <c r="F82" s="39">
+        <v>181</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="22">
+        <v>42673.864722222213</v>
+      </c>
+      <c r="J82" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="44">
-        <v>101545</v>
-      </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="19"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="39"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101621</v>
+      </c>
+      <c r="B83" s="23">
+        <v>360</v>
+      </c>
+      <c r="C83" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D83">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="39">
+        <v>793</v>
+      </c>
+      <c r="F83" s="39">
+        <v>127</v>
+      </c>
+      <c r="H83" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="22">
+        <v>42674.580972222211</v>
+      </c>
+      <c r="J83" s="17">
+        <v>7</v>
+      </c>
+      <c r="K83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="44">
-        <v>101546</v>
-      </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="19"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="39"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101615</v>
+      </c>
+      <c r="B84" s="23">
+        <v>360</v>
+      </c>
+      <c r="C84" s="19">
+        <v>128000</v>
+      </c>
+      <c r="D84">
+        <v>4001.54</v>
+      </c>
+      <c r="E84" s="39">
+        <v>638</v>
+      </c>
+      <c r="F84" s="39">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="22">
+        <v>42676.362222222211</v>
+      </c>
+      <c r="J84" s="17">
+        <v>7.2</v>
+      </c>
+      <c r="K84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="44">
-        <v>101547</v>
-      </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="19"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="39"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101633</v>
+      </c>
+      <c r="B85" s="23">
+        <v>360</v>
+      </c>
+      <c r="C85" s="19">
+        <v>24000</v>
+      </c>
+      <c r="D85">
+        <v>683</v>
+      </c>
+      <c r="E85" s="39">
+        <v>316</v>
+      </c>
+      <c r="F85" s="39">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="22">
+        <v>42676.706388888881</v>
+      </c>
+      <c r="J85" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="44">
-        <v>101548</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="19"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="39"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101662</v>
+      </c>
+      <c r="B86" s="23">
+        <v>360</v>
+      </c>
+      <c r="C86" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D86">
+        <v>1366</v>
+      </c>
+      <c r="E86" s="40">
+        <v>1036</v>
+      </c>
+      <c r="F86" s="39">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="22">
+        <v>42677.374305555546</v>
+      </c>
+      <c r="J86" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="44">
-        <v>101549</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="19"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="39"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101616</v>
+      </c>
+      <c r="B87" s="23">
+        <v>410</v>
+      </c>
+      <c r="C87" s="19">
+        <v>120000</v>
+      </c>
+      <c r="D87">
+        <v>4287.3599999999997</v>
+      </c>
+      <c r="E87" s="39">
+        <v>125</v>
+      </c>
+      <c r="F87" s="39">
+        <v>32</v>
+      </c>
+      <c r="H87" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" s="22">
+        <v>42679.085972222216</v>
+      </c>
+      <c r="J87" s="17">
+        <v>8.9</v>
+      </c>
+      <c r="K87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="44">
-        <v>101550</v>
-      </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="19"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="39"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101627</v>
+      </c>
+      <c r="B88" s="23">
+        <v>410</v>
+      </c>
+      <c r="C88" s="19">
+        <v>60000</v>
+      </c>
+      <c r="D88">
+        <v>1951</v>
+      </c>
+      <c r="E88" s="39">
+        <v>59</v>
+      </c>
+      <c r="F88" s="39">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="22">
+        <v>42679.939722222218</v>
+      </c>
+      <c r="J88" s="17">
+        <v>9</v>
+      </c>
+      <c r="K88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="44">
-        <v>101551</v>
-      </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="19"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="39"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101634</v>
+      </c>
+      <c r="B89" s="23">
+        <v>410</v>
+      </c>
+      <c r="C89" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D89">
+        <v>3122</v>
+      </c>
+      <c r="E89" s="39">
+        <v>248</v>
+      </c>
+      <c r="F89" s="39">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" s="22">
+        <v>42681.275555555549</v>
+      </c>
+      <c r="J89" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="44">
-        <v>101552</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="19"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="39"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101654</v>
+      </c>
+      <c r="B90" s="23">
+        <v>465</v>
+      </c>
+      <c r="C90" s="19">
+        <v>18000</v>
+      </c>
+      <c r="D90">
+        <v>659</v>
+      </c>
+      <c r="E90" s="39">
+        <v>28</v>
+      </c>
+      <c r="F90" s="39">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" s="22">
+        <v>42681.71388888888</v>
+      </c>
+      <c r="J90" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="44">
-        <v>101553</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="19"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="39"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101617</v>
+      </c>
+      <c r="B91" s="23">
+        <v>465</v>
+      </c>
+      <c r="C91" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D91">
+        <v>1929.31</v>
+      </c>
+      <c r="E91" s="39">
+        <v>71</v>
+      </c>
+      <c r="F91" s="39">
+        <v>48</v>
+      </c>
+      <c r="H91" t="s">
+        <v>64</v>
+      </c>
+      <c r="I91" s="22">
+        <v>42682.449722222213</v>
+      </c>
+      <c r="J91" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="K91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="44">
-        <v>101554</v>
-      </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="19"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="39"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101635</v>
+      </c>
+      <c r="B92" s="23">
+        <v>465</v>
+      </c>
+      <c r="C92" s="19">
+        <v>192000</v>
+      </c>
+      <c r="D92">
+        <v>7022</v>
+      </c>
+      <c r="E92" s="39">
+        <v>184</v>
+      </c>
+      <c r="F92" s="39">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" s="22">
+        <v>42685.362638888881</v>
+      </c>
+      <c r="J92" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="K92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="44">
-        <v>101555</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="19"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="39"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101628</v>
+      </c>
+      <c r="B93" s="23">
+        <v>515</v>
+      </c>
+      <c r="C93" s="19">
+        <v>60000</v>
+      </c>
+      <c r="D93">
+        <v>2438.4</v>
+      </c>
+      <c r="E93" s="39">
+        <v>163</v>
+      </c>
+      <c r="F93" s="39">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="22">
+        <v>42686.406805555547</v>
+      </c>
+      <c r="J93" s="17">
+        <v>12.2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="44">
-        <v>101556</v>
-      </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="19"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="39"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101626</v>
+      </c>
+      <c r="B94" s="23">
+        <v>515</v>
+      </c>
+      <c r="C94" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D94">
+        <v>2143.6799999999998</v>
+      </c>
+      <c r="E94" s="39">
+        <v>98</v>
+      </c>
+      <c r="F94" s="39">
+        <v>47</v>
+      </c>
+      <c r="H94" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="22">
+        <v>42687.302638888883</v>
+      </c>
+      <c r="J94" s="17">
+        <v>13.4</v>
+      </c>
+      <c r="K94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="44">
-        <v>101557</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="19"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="39"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101618</v>
+      </c>
+      <c r="B95" s="23">
+        <v>515</v>
+      </c>
+      <c r="C95" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D95">
+        <v>4287.3599999999997</v>
+      </c>
+      <c r="E95" s="39">
+        <v>190</v>
+      </c>
+      <c r="F95" s="39">
+        <v>24</v>
+      </c>
+      <c r="H95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95" s="22">
+        <v>42689.055972222217</v>
+      </c>
+      <c r="J95" s="17">
+        <v>13.6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="44">
-        <v>101558</v>
-      </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="19"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="39"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101636</v>
+      </c>
+      <c r="B96" s="23">
+        <v>515</v>
+      </c>
+      <c r="C96" s="19">
+        <v>80000</v>
+      </c>
+      <c r="D96">
+        <v>3250</v>
+      </c>
+      <c r="E96" s="39">
+        <v>189</v>
+      </c>
+      <c r="F96" s="39">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" s="22">
+        <v>42690.389722222215</v>
+      </c>
+      <c r="J96" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="44">
-        <v>101559</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="19"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101637</v>
+      </c>
+      <c r="B97" s="23">
+        <v>565</v>
+      </c>
+      <c r="C97" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D97">
+        <v>2146</v>
+      </c>
+      <c r="E97" s="39">
+        <v>249</v>
+      </c>
+      <c r="F97" s="39">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" s="22">
+        <v>42691.335555555546</v>
+      </c>
+      <c r="J97" s="17">
+        <v>13.4</v>
+      </c>
+      <c r="K97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="44">
-        <v>101560</v>
-      </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="19"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="39"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101619</v>
+      </c>
+      <c r="B98" s="23">
+        <v>620</v>
+      </c>
+      <c r="C98" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D98">
+        <v>5144.83</v>
+      </c>
+      <c r="E98" s="39">
+        <v>116</v>
+      </c>
+      <c r="F98" s="39">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="22">
+        <v>42693.247638888883</v>
+      </c>
+      <c r="J98" s="17">
+        <v>13.7</v>
+      </c>
+      <c r="K98" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="44">
-        <v>101561</v>
-      </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="19"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="39"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101629</v>
+      </c>
+      <c r="B99" s="23">
+        <v>620</v>
+      </c>
+      <c r="C99" s="19">
+        <v>72000</v>
+      </c>
+      <c r="D99">
+        <v>3511.3</v>
+      </c>
+      <c r="E99" s="39">
+        <v>403</v>
+      </c>
+      <c r="F99" s="39">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" s="22">
+        <v>42694.533055555548</v>
+      </c>
+      <c r="J99" s="17">
+        <v>14.6</v>
+      </c>
+      <c r="K99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="44">
-        <v>101562</v>
-      </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="19"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="39"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101638</v>
+      </c>
+      <c r="B100" s="23">
+        <v>620</v>
+      </c>
+      <c r="C100" s="19">
+        <v>80000</v>
+      </c>
+      <c r="D100">
+        <v>3901</v>
+      </c>
+      <c r="E100" s="39">
+        <v>189</v>
+      </c>
+      <c r="F100" s="39">
+        <v>48</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="22">
+        <v>42695.935972222214</v>
+      </c>
+      <c r="J100" s="17">
+        <v>15.8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="44">
-        <v>101563</v>
-      </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="19"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="39"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101630</v>
+      </c>
+      <c r="B101" s="23">
+        <v>670</v>
+      </c>
+      <c r="C101" s="19">
+        <v>12000</v>
+      </c>
+      <c r="D101">
+        <v>633.98</v>
+      </c>
+      <c r="E101" s="39">
+        <v>479</v>
+      </c>
+      <c r="F101" s="39">
+        <v>48</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" s="22">
+        <v>42696.178055555545</v>
+      </c>
+      <c r="J101" s="17">
+        <v>15.5</v>
+      </c>
+      <c r="K101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="44">
-        <v>101564</v>
-      </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="19"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="39"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101639</v>
+      </c>
+      <c r="B102" s="23">
+        <v>670</v>
+      </c>
+      <c r="C102" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D102">
+        <v>2535</v>
+      </c>
+      <c r="E102" s="39">
+        <v>870</v>
+      </c>
+      <c r="F102" s="39">
+        <v>49</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" s="22">
+        <v>42697.054722222209</v>
+      </c>
+      <c r="J102" s="17">
+        <v>15.8</v>
+      </c>
+      <c r="K102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="44">
-        <v>101565</v>
-      </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="19"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="39"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101631</v>
+      </c>
+      <c r="B103" s="23">
+        <v>720</v>
+      </c>
+      <c r="C103" s="19">
+        <v>36000</v>
+      </c>
+      <c r="D103">
+        <v>2048.2600000000002</v>
+      </c>
+      <c r="E103" s="39">
+        <v>139</v>
+      </c>
+      <c r="F103" s="39">
+        <v>48</v>
+      </c>
+      <c r="H103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103" s="22">
+        <v>42697.800138888873</v>
+      </c>
+      <c r="J103" s="17">
+        <v>7</v>
+      </c>
+      <c r="K103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="44">
-        <v>101566</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="19"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="39"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101640</v>
+      </c>
+      <c r="B104" s="23">
+        <v>720</v>
+      </c>
+      <c r="C104" s="19">
+        <v>96000</v>
+      </c>
+      <c r="D104">
+        <v>5463</v>
+      </c>
+      <c r="E104" s="39">
+        <v>173</v>
+      </c>
+      <c r="F104" s="39">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="22">
+        <v>42699.713055555541</v>
+      </c>
+      <c r="J104" s="17">
+        <v>8.9</v>
+      </c>
+      <c r="K104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="44">
-        <v>101567</v>
-      </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="19"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="39"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101656</v>
+      </c>
+      <c r="B105" s="23">
+        <v>205</v>
+      </c>
+      <c r="C105" s="19">
+        <v>42000</v>
+      </c>
+      <c r="D105">
+        <v>1219</v>
+      </c>
+      <c r="E105" s="39">
+        <v>72</v>
+      </c>
+      <c r="F105" s="39">
+        <v>48</v>
+      </c>
+      <c r="H105" t="s">
+        <v>246</v>
+      </c>
+      <c r="I105" s="22">
+        <v>42700.628888888874</v>
+      </c>
+      <c r="J105" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="44">
-        <v>101568</v>
-      </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="19"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="39"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101657</v>
+      </c>
+      <c r="B106" s="23">
+        <v>236</v>
+      </c>
+      <c r="C106" s="19">
+        <v>12000</v>
+      </c>
+      <c r="D106">
+        <v>401</v>
+      </c>
+      <c r="E106" s="39">
+        <v>497</v>
+      </c>
+      <c r="F106" s="39">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>93</v>
+      </c>
+      <c r="I106" s="22">
+        <v>42700.881805555538</v>
+      </c>
+      <c r="J106" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="K106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="44">
-        <v>101569</v>
-      </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="19"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="39"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101664</v>
+      </c>
+      <c r="B107" s="23">
+        <v>236</v>
+      </c>
+      <c r="C107" s="19">
+        <v>18000</v>
+      </c>
+      <c r="D107">
+        <v>601</v>
+      </c>
+      <c r="E107" s="39">
+        <v>125</v>
+      </c>
+      <c r="F107" s="39">
+        <v>32</v>
+      </c>
+      <c r="H107" t="s">
+        <v>93</v>
+      </c>
+      <c r="I107" s="22">
+        <v>42701.198472222204</v>
+      </c>
+      <c r="J107" s="17">
+        <v>13.6</v>
+      </c>
+      <c r="K107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="44">
-        <v>101570</v>
-      </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="19"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="39"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101655</v>
+      </c>
+      <c r="B108" s="23">
+        <v>257</v>
+      </c>
+      <c r="C108" s="19">
+        <v>90000</v>
+      </c>
+      <c r="D108">
+        <v>3264</v>
+      </c>
+      <c r="E108" s="39">
+        <v>58</v>
+      </c>
+      <c r="F108" s="39">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>94</v>
+      </c>
+      <c r="I108" s="22">
+        <v>42702.823472222204</v>
+      </c>
+      <c r="J108" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="K108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="44">
-        <v>101571</v>
-      </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="19"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="39"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101641</v>
+      </c>
+      <c r="B109" s="23">
+        <v>257</v>
+      </c>
+      <c r="C109" s="19">
+        <v>28800</v>
+      </c>
+      <c r="D109">
+        <v>1269</v>
+      </c>
+      <c r="E109" s="40">
+        <v>1738</v>
+      </c>
+      <c r="F109" s="39">
+        <v>181</v>
+      </c>
+      <c r="H109" t="s">
+        <v>102</v>
+      </c>
+      <c r="I109" s="22">
+        <v>42703.398888888871</v>
+      </c>
+      <c r="J109" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="K109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="44">
-        <v>101572</v>
-      </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="19"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="39"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101658</v>
+      </c>
+      <c r="B110" s="23">
+        <v>287</v>
+      </c>
+      <c r="C110" s="19">
+        <v>150000</v>
+      </c>
+      <c r="D110">
+        <v>6093</v>
+      </c>
+      <c r="E110" s="39">
+        <v>234</v>
+      </c>
+      <c r="F110" s="39">
+        <v>64</v>
+      </c>
+      <c r="H110" t="s">
+        <v>247</v>
+      </c>
+      <c r="I110" s="22">
+        <v>42706.164722222202</v>
+      </c>
+      <c r="J110" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="K110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="44">
-        <v>101573</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="19"/>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101644</v>
+      </c>
+      <c r="B111" s="23">
+        <v>287</v>
+      </c>
+      <c r="C111" s="19">
+        <v>28800</v>
+      </c>
+      <c r="D111">
+        <v>1421</v>
+      </c>
+      <c r="E111" s="39">
+        <v>29</v>
+      </c>
+      <c r="F111" s="39">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>104</v>
+      </c>
+      <c r="I111" s="22">
+        <v>42706.740138888868</v>
+      </c>
+      <c r="J111" s="17">
+        <v>7.6</v>
+      </c>
+      <c r="K111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="44">
-        <v>101574</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="19"/>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101659</v>
+      </c>
+      <c r="B112" s="23">
+        <v>308</v>
+      </c>
+      <c r="C112" s="19">
+        <v>72000</v>
+      </c>
+      <c r="D112">
+        <v>3133</v>
+      </c>
+      <c r="E112" s="39">
+        <v>372</v>
+      </c>
+      <c r="F112" s="39">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s">
+        <v>96</v>
+      </c>
+      <c r="I112" s="22">
+        <v>42708.10138888887</v>
+      </c>
+      <c r="J112" s="17">
+        <v>8</v>
+      </c>
+      <c r="K112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="44">
-        <v>101575</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="19"/>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101642</v>
+      </c>
+      <c r="B113" s="23">
+        <v>308</v>
+      </c>
+      <c r="C113" s="19">
+        <v>28800</v>
+      </c>
+      <c r="D113">
+        <v>1522</v>
+      </c>
+      <c r="E113" s="39">
+        <v>186</v>
+      </c>
+      <c r="F113" s="39">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>105</v>
+      </c>
+      <c r="I113" s="22">
+        <v>42708.676805555537</v>
+      </c>
+      <c r="J113" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="K113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="44">
-        <v>101576</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="19"/>
-      <c r="E114" s="17"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101660</v>
+      </c>
+      <c r="B114" s="23">
+        <v>359</v>
+      </c>
+      <c r="C114" s="19">
+        <v>48000</v>
+      </c>
+      <c r="D114">
+        <v>2438</v>
+      </c>
+      <c r="E114" s="39">
+        <v>422</v>
+      </c>
+      <c r="F114" s="39">
+        <v>48</v>
+      </c>
+      <c r="H114" t="s">
+        <v>98</v>
+      </c>
+      <c r="I114" s="22">
+        <v>42709.597638888867</v>
+      </c>
+      <c r="J114" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="44">
-        <v>101577</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="19"/>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101643</v>
+      </c>
+      <c r="B115" s="23">
+        <v>359</v>
+      </c>
+      <c r="C115" s="19">
+        <v>28800</v>
+      </c>
+      <c r="D115">
+        <v>1776</v>
+      </c>
+      <c r="E115" s="39">
+        <v>304</v>
+      </c>
+      <c r="F115" s="39">
+        <v>48</v>
+      </c>
+      <c r="H115" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="22">
+        <v>42710.228055555534</v>
+      </c>
+      <c r="J115" s="17">
+        <v>11.7</v>
+      </c>
+      <c r="K115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="44">
-        <v>101578</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="19"/>
-      <c r="E116" s="17"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101661</v>
+      </c>
+      <c r="B116" s="23">
+        <v>410</v>
+      </c>
+      <c r="C116" s="19">
+        <v>18000</v>
+      </c>
+      <c r="D116">
+        <v>1045</v>
+      </c>
+      <c r="E116" s="39">
+        <v>159</v>
+      </c>
+      <c r="F116" s="39">
+        <v>94</v>
+      </c>
+      <c r="H116" t="s">
+        <v>245</v>
+      </c>
+      <c r="I116" s="22">
+        <v>42710.638055555537</v>
+      </c>
+      <c r="J116" s="17">
+        <v>13.2</v>
+      </c>
+      <c r="K116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="44">
-        <v>101579</v>
-      </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="19"/>
-      <c r="E117" s="17"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="44">
-        <v>101580</v>
-      </c>
+        <v>101645</v>
+      </c>
+      <c r="B117" s="23">
+        <v>460</v>
+      </c>
+      <c r="C117" s="19">
+        <v>14400</v>
+      </c>
+      <c r="D117">
+        <v>1412</v>
+      </c>
+      <c r="E117" s="39">
+        <v>243</v>
+      </c>
+      <c r="F117" s="39">
+        <v>48</v>
+      </c>
+      <c r="H117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I117" s="22">
+        <v>42711.076805555538</v>
+      </c>
+      <c r="J117" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="K117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
       <c r="B118" s="23"/>
       <c r="C118" s="19"/>
       <c r="E118" s="17"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="44">
-        <v>101581</v>
-      </c>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
       <c r="B119" s="23"/>
       <c r="C119" s="19"/>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="44">
-        <v>101582</v>
-      </c>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
       <c r="B120" s="23"/>
       <c r="C120" s="19"/>
       <c r="E120" s="17"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="44">
-        <v>101583</v>
-      </c>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
       <c r="B121" s="23"/>
       <c r="C121" s="19"/>
       <c r="E121" s="17"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="44">
-        <v>101584</v>
-      </c>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
       <c r="B122" s="23"/>
       <c r="C122" s="19"/>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="44">
-        <v>101585</v>
-      </c>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
       <c r="B123" s="23"/>
       <c r="C123" s="19"/>
       <c r="E123" s="17"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="44">
-        <v>101586</v>
-      </c>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="44"/>
       <c r="B124" s="23"/>
       <c r="C124" s="19"/>
       <c r="E124" s="17"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="44">
-        <v>101587</v>
-      </c>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="44"/>
       <c r="B125" s="23"/>
       <c r="C125" s="19"/>
       <c r="E125" s="17"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="44">
-        <v>101589</v>
-      </c>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="44"/>
       <c r="B126" s="23"/>
       <c r="C126" s="19"/>
       <c r="E126" s="17"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="44">
-        <v>101590</v>
-      </c>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="44"/>
       <c r="B127" s="23"/>
       <c r="C127" s="19"/>
       <c r="E127" s="17"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="44">
-        <v>101591</v>
-      </c>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="44"/>
       <c r="B128" s="23"/>
       <c r="C128" s="19"/>
       <c r="E128" s="17"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="44">
-        <v>101592</v>
-      </c>
+      <c r="A129" s="44"/>
       <c r="B129" s="23"/>
       <c r="C129" s="19"/>
       <c r="E129" s="17"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="44">
-        <v>101593</v>
-      </c>
+      <c r="A130" s="44"/>
       <c r="B130" s="23"/>
       <c r="C130" s="19"/>
       <c r="E130" s="17"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="44">
-        <v>101594</v>
-      </c>
+      <c r="A131" s="44"/>
       <c r="B131" s="23"/>
       <c r="C131" s="19"/>
       <c r="E131" s="17"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="44">
-        <v>101595</v>
-      </c>
+      <c r="A132" s="44"/>
       <c r="B132" s="23"/>
       <c r="C132" s="19"/>
       <c r="E132" s="17"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="44">
-        <v>101596</v>
-      </c>
+      <c r="A133" s="44"/>
       <c r="B133" s="23"/>
       <c r="C133" s="19"/>
       <c r="E133" s="17"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="44">
-        <v>101597</v>
-      </c>
+      <c r="A134" s="44"/>
       <c r="B134" s="23"/>
       <c r="C134" s="19"/>
       <c r="E134" s="17"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="44">
-        <v>101602</v>
-      </c>
+      <c r="A135" s="44"/>
       <c r="B135" s="23"/>
       <c r="C135" s="19"/>
       <c r="E135" s="17"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="44">
-        <v>101603</v>
-      </c>
+      <c r="A136" s="44"/>
       <c r="B136" s="23"/>
       <c r="C136" s="19"/>
       <c r="E136" s="17"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="44">
-        <v>101604</v>
-      </c>
+      <c r="A137" s="44"/>
       <c r="B137" s="23"/>
       <c r="C137" s="19"/>
       <c r="E137" s="17"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="44">
-        <v>101605</v>
-      </c>
+      <c r="A138" s="44"/>
       <c r="B138" s="23"/>
       <c r="C138" s="19"/>
       <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="44">
-        <v>101606</v>
-      </c>
+      <c r="A139" s="44"/>
       <c r="B139" s="23"/>
       <c r="C139" s="19"/>
       <c r="E139" s="17"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="44">
-        <v>101607</v>
-      </c>
+      <c r="A140" s="44"/>
       <c r="B140" s="23"/>
       <c r="C140" s="19"/>
       <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="44">
-        <v>101608</v>
-      </c>
+      <c r="A141" s="44"/>
       <c r="B141" s="23"/>
       <c r="C141" s="19"/>
       <c r="E141" s="17"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="44">
-        <v>101609</v>
-      </c>
+      <c r="A142" s="44"/>
       <c r="B142" s="23"/>
       <c r="C142" s="19"/>
       <c r="E142" s="17"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="44">
-        <v>101610</v>
-      </c>
+      <c r="A143" s="44"/>
       <c r="B143" s="23"/>
       <c r="C143" s="19"/>
       <c r="E143" s="17"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="44">
-        <v>101611</v>
-      </c>
+      <c r="A144" s="44"/>
       <c r="B144" s="23"/>
       <c r="C144" s="19"/>
       <c r="E144" s="17"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="44">
-        <v>101612</v>
-      </c>
+      <c r="A145" s="44"/>
       <c r="B145" s="23"/>
       <c r="C145" s="19"/>
       <c r="E145" s="17"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="44">
-        <v>101613</v>
-      </c>
+      <c r="A146" s="44"/>
       <c r="B146" s="23"/>
       <c r="C146" s="19"/>
       <c r="E146" s="17"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="44">
-        <v>101614</v>
-      </c>
+      <c r="A147" s="44"/>
       <c r="B147" s="23"/>
       <c r="C147" s="19"/>
       <c r="E147" s="17"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="44">
-        <v>101615</v>
-      </c>
+      <c r="A148" s="44"/>
       <c r="B148" s="23"/>
       <c r="C148" s="19"/>
       <c r="E148" s="17"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="44">
-        <v>101616</v>
-      </c>
+      <c r="A149" s="44"/>
       <c r="B149" s="23"/>
       <c r="C149" s="19"/>
       <c r="E149" s="17"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="44">
-        <v>101617</v>
-      </c>
+      <c r="A150" s="44"/>
       <c r="B150" s="23"/>
       <c r="C150" s="19"/>
       <c r="E150" s="17"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="44">
-        <v>101618</v>
-      </c>
+      <c r="A151" s="44"/>
       <c r="B151" s="23"/>
       <c r="C151" s="19"/>
       <c r="E151" s="17"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="44">
-        <v>101619</v>
-      </c>
+      <c r="A152" s="44"/>
       <c r="B152" s="23"/>
       <c r="C152" s="19"/>
       <c r="E152" s="17"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="44">
-        <v>101621</v>
-      </c>
+      <c r="A153" s="44"/>
       <c r="B153" s="23"/>
       <c r="C153" s="19"/>
       <c r="E153" s="17"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="44">
-        <v>101622</v>
-      </c>
+      <c r="A154" s="44"/>
       <c r="B154" s="23"/>
       <c r="C154" s="19"/>
       <c r="E154" s="17"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="44">
-        <v>101623</v>
-      </c>
+      <c r="A155" s="44"/>
       <c r="B155" s="23"/>
       <c r="C155" s="19"/>
       <c r="E155" s="18"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="44">
-        <v>101626</v>
-      </c>
+      <c r="A156" s="44"/>
       <c r="B156" s="23"/>
       <c r="C156" s="19"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="44">
-        <v>101627</v>
-      </c>
+      <c r="A157" s="44"/>
       <c r="B157" s="23"/>
       <c r="C157" s="19"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="44">
-        <v>101628</v>
-      </c>
+      <c r="A158" s="44"/>
       <c r="B158" s="23"/>
       <c r="C158" s="19"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="44">
-        <v>101629</v>
-      </c>
+      <c r="A159" s="44"/>
       <c r="B159" s="23"/>
       <c r="C159" s="19"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="44">
-        <v>101630</v>
-      </c>
+      <c r="A160" s="44"/>
       <c r="B160" s="23"/>
       <c r="C160" s="19"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="44">
-        <v>101631</v>
-      </c>
+      <c r="A161" s="44"/>
       <c r="B161" s="23"/>
       <c r="C161" s="19"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="44">
-        <v>101632</v>
-      </c>
+      <c r="A162" s="44"/>
       <c r="B162" s="23"/>
       <c r="C162" s="19"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="44">
-        <v>101633</v>
-      </c>
+      <c r="A163" s="44"/>
       <c r="B163" s="23"/>
       <c r="C163" s="19"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="44">
-        <v>101634</v>
-      </c>
+      <c r="A164" s="44"/>
       <c r="B164" s="23"/>
       <c r="C164" s="19"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="44">
-        <v>101635</v>
-      </c>
+      <c r="A165" s="44"/>
       <c r="B165" s="23"/>
       <c r="C165" s="19"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="44">
-        <v>101636</v>
-      </c>
+      <c r="A166" s="44"/>
       <c r="B166" s="23"/>
       <c r="C166" s="19"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="44">
-        <v>101637</v>
-      </c>
+      <c r="A167" s="44"/>
       <c r="B167" s="23"/>
       <c r="C167" s="19"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="44">
-        <v>101637</v>
-      </c>
+      <c r="A168" s="44"/>
       <c r="B168" s="23"/>
       <c r="C168" s="19"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="44">
-        <v>101638</v>
-      </c>
+      <c r="A169" s="44"/>
       <c r="B169" s="23"/>
       <c r="C169" s="19"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="44">
-        <v>101639</v>
-      </c>
+      <c r="A170" s="44"/>
       <c r="B170" s="23"/>
       <c r="C170" s="19"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="44">
-        <v>101640</v>
-      </c>
+      <c r="A171" s="44"/>
       <c r="B171" s="23"/>
       <c r="C171" s="19"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="44">
-        <v>101641</v>
-      </c>
+      <c r="A172" s="44"/>
       <c r="B172" s="23"/>
       <c r="C172" s="19"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="44">
-        <v>101642</v>
-      </c>
+      <c r="A173" s="44"/>
       <c r="B173" s="23"/>
       <c r="C173" s="19"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="44">
-        <v>101643</v>
-      </c>
+      <c r="A174" s="44"/>
       <c r="B174" s="23"/>
       <c r="C174" s="19"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="44">
-        <v>101644</v>
-      </c>
+      <c r="A175" s="44"/>
       <c r="B175" s="23"/>
       <c r="C175" s="19"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="44">
-        <v>101645</v>
-      </c>
+      <c r="A176" s="44"/>
       <c r="B176" s="23"/>
       <c r="C176" s="19"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="44">
-        <v>101646</v>
-      </c>
+      <c r="A177" s="44"/>
       <c r="B177" s="23"/>
       <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="44">
-        <v>101647</v>
-      </c>
+      <c r="A178" s="44"/>
       <c r="B178" s="23"/>
       <c r="C178" s="19"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="44">
-        <v>101648</v>
-      </c>
+      <c r="A179" s="44"/>
       <c r="B179" s="23"/>
       <c r="C179" s="19"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="44">
-        <v>101650</v>
-      </c>
+      <c r="A180" s="44"/>
       <c r="B180" s="23"/>
       <c r="C180" s="19"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="44">
-        <v>101651</v>
-      </c>
+      <c r="A181" s="44"/>
       <c r="B181" s="23"/>
       <c r="C181" s="19"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="44">
-        <v>101652</v>
-      </c>
+      <c r="A182" s="44"/>
       <c r="B182" s="23"/>
       <c r="C182" s="19"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="44">
-        <v>101653</v>
-      </c>
+      <c r="A183" s="44"/>
       <c r="B183" s="23"/>
       <c r="C183" s="19"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="44">
-        <v>101654</v>
-      </c>
+      <c r="A184" s="44"/>
       <c r="B184" s="23"/>
       <c r="C184" s="19"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="44">
-        <v>101662</v>
-      </c>
+      <c r="A185" s="44"/>
       <c r="B185" s="23"/>
       <c r="C185" s="19"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="44">
-        <v>101663</v>
-      </c>
+      <c r="A186" s="44"/>
       <c r="B186" s="23"/>
       <c r="C186" s="20"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="44">
-        <v>101663</v>
-      </c>
+      <c r="A187" s="44"/>
       <c r="B187" s="23"/>
       <c r="C187" s="20"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="44">
-        <v>101664</v>
-      </c>
+      <c r="A188" s="44"/>
       <c r="B188" s="23"/>
       <c r="C188" s="19"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="44">
-        <v>101665</v>
-      </c>
+      <c r="A189" s="44"/>
       <c r="B189" s="23"/>
       <c r="C189" s="19"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="44">
-        <v>101666</v>
-      </c>
+      <c r="A190" s="44"/>
       <c r="B190" s="23"/>
       <c r="C190" s="19"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="44">
-        <v>101667</v>
-      </c>
+      <c r="A191" s="44"/>
       <c r="B191" s="23"/>
       <c r="C191" s="19"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="44">
-        <v>101667</v>
-      </c>
+      <c r="A192" s="44"/>
       <c r="B192" s="23"/>
       <c r="C192" s="19"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="44">
-        <v>101668</v>
-      </c>
+      <c r="A193" s="44"/>
       <c r="B193" s="23"/>
       <c r="C193" s="19"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="44">
-        <v>101669</v>
-      </c>
+      <c r="A194" s="44"/>
       <c r="B194" s="23"/>
       <c r="C194" s="19"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="44">
-        <v>101670</v>
-      </c>
+      <c r="A195" s="44"/>
       <c r="B195" s="23"/>
       <c r="C195" s="19"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="44">
-        <v>101671</v>
-      </c>
+      <c r="A196" s="44"/>
       <c r="B196" s="23"/>
       <c r="C196" s="19"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="44">
-        <v>101672</v>
-      </c>
+      <c r="A197" s="44"/>
       <c r="B197" s="23"/>
       <c r="C197" s="19"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="44">
-        <v>101672</v>
-      </c>
+      <c r="A198" s="44"/>
       <c r="B198" s="23"/>
       <c r="C198" s="19"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="44">
-        <v>101673</v>
-      </c>
+      <c r="A199" s="44"/>
       <c r="B199" s="23"/>
       <c r="C199" s="19"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="44">
-        <v>101673</v>
-      </c>
+      <c r="A200" s="44"/>
       <c r="B200" s="23"/>
       <c r="C200" s="19"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="44">
-        <v>101674</v>
-      </c>
+      <c r="A201" s="44"/>
       <c r="B201" s="23"/>
       <c r="C201" s="19"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="44">
-        <v>101676</v>
-      </c>
+      <c r="A202" s="44"/>
       <c r="B202" s="23"/>
       <c r="C202" s="19"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="44">
-        <v>101679</v>
-      </c>
+      <c r="A203" s="44"/>
       <c r="B203" s="23"/>
       <c r="C203" s="19"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="44">
-        <v>101680</v>
-      </c>
+      <c r="A204" s="44"/>
       <c r="B204" s="23"/>
       <c r="C204" s="19"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="44">
-        <v>101681</v>
-      </c>
+      <c r="A205" s="44"/>
       <c r="B205" s="23"/>
       <c r="C205" s="19"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="44">
-        <v>101682</v>
-      </c>
+      <c r="A206" s="44"/>
       <c r="B206" s="23"/>
       <c r="C206" s="19"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="44">
-        <v>101684</v>
-      </c>
+      <c r="A207" s="44"/>
       <c r="B207" s="23"/>
       <c r="C207" s="19"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="44">
-        <v>101685</v>
-      </c>
+      <c r="A208" s="44"/>
       <c r="B208" s="23"/>
       <c r="C208" s="19"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="44">
-        <v>101686</v>
-      </c>
+      <c r="A209" s="44"/>
       <c r="B209" s="23"/>
       <c r="C209" s="19"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="44">
-        <v>101687</v>
-      </c>
+      <c r="A210" s="44"/>
       <c r="B210" s="23"/>
       <c r="C210" s="19"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="44">
-        <v>101688</v>
-      </c>
+      <c r="A211" s="44"/>
       <c r="B211" s="23"/>
       <c r="C211" s="19"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="44">
-        <v>101689</v>
-      </c>
+      <c r="A212" s="44"/>
       <c r="B212" s="23"/>
       <c r="C212" s="19"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="44">
-        <v>101690</v>
-      </c>
+      <c r="A213" s="44"/>
       <c r="B213" s="23"/>
       <c r="C213" s="19"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="44">
-        <v>101690</v>
-      </c>
+      <c r="A214" s="44"/>
       <c r="B214" s="23"/>
       <c r="C214" s="19"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="44">
-        <v>101691</v>
-      </c>
+      <c r="A215" s="44"/>
       <c r="B215" s="23"/>
       <c r="C215" s="19"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="44">
-        <v>101692</v>
-      </c>
+      <c r="A216" s="44"/>
       <c r="B216" s="23"/>
       <c r="C216" s="19"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="44">
-        <v>101693</v>
-      </c>
+      <c r="A217" s="44"/>
       <c r="B217" s="23"/>
       <c r="C217" s="19"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="44">
-        <v>101694</v>
-      </c>
+      <c r="A218" s="44"/>
       <c r="B218" s="23"/>
       <c r="C218" s="19"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="44">
-        <v>101695</v>
-      </c>
+      <c r="A219" s="44"/>
       <c r="B219" s="23"/>
       <c r="C219" s="19"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="44">
-        <v>101697</v>
-      </c>
+      <c r="A220" s="44"/>
       <c r="B220" s="23"/>
       <c r="C220" s="19"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="44">
-        <v>101698</v>
-      </c>
+      <c r="A221" s="44"/>
       <c r="B221" s="23"/>
       <c r="C221" s="19"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="44">
-        <v>101699</v>
-      </c>
+      <c r="A222" s="44"/>
       <c r="B222" s="23"/>
       <c r="C222" s="19"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="44">
-        <v>101700</v>
-      </c>
+      <c r="A223" s="44"/>
       <c r="B223" s="23"/>
       <c r="C223" s="19"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="44">
-        <v>101701</v>
-      </c>
+      <c r="A224" s="44"/>
       <c r="B224" s="23"/>
       <c r="C224" s="19"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="44">
-        <v>101702</v>
-      </c>
+      <c r="A225" s="44"/>
       <c r="B225" s="23"/>
       <c r="C225" s="19"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="44">
-        <v>101703</v>
-      </c>
+      <c r="A226" s="44"/>
       <c r="B226" s="23"/>
       <c r="C226" s="19"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="44">
-        <v>101704</v>
-      </c>
+      <c r="A227" s="44"/>
       <c r="B227" s="23"/>
       <c r="C227" s="19"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="44">
-        <v>101705</v>
-      </c>
+      <c r="A228" s="44"/>
       <c r="B228" s="23"/>
       <c r="C228" s="19"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="44">
-        <v>101706</v>
-      </c>
+      <c r="A229" s="44"/>
       <c r="B229" s="23"/>
       <c r="C229" s="19"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="44">
-        <v>101707</v>
-      </c>
+      <c r="A230" s="44"/>
       <c r="B230" s="23"/>
       <c r="C230" s="19"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="44">
-        <v>101708</v>
-      </c>
+      <c r="A231" s="44"/>
       <c r="B231" s="23"/>
       <c r="C231" s="19"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="44">
-        <v>101709</v>
-      </c>
+      <c r="A232" s="44"/>
       <c r="B232" s="23"/>
       <c r="C232" s="19"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="44">
-        <v>101710</v>
-      </c>
+      <c r="A233" s="44"/>
       <c r="B233" s="23"/>
       <c r="C233" s="19"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="44">
-        <v>101711</v>
-      </c>
+      <c r="A234" s="44"/>
       <c r="B234" s="23"/>
       <c r="C234" s="19"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="44">
-        <v>101712</v>
-      </c>
+      <c r="A235" s="44"/>
       <c r="B235" s="23"/>
       <c r="C235" s="19"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="44">
-        <v>101713</v>
-      </c>
+      <c r="A236" s="44"/>
       <c r="B236" s="23"/>
       <c r="C236" s="19"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="44">
-        <v>101714</v>
-      </c>
+      <c r="A237" s="44"/>
       <c r="B237" s="23"/>
       <c r="C237" s="19"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="44">
-        <v>101715</v>
-      </c>
+      <c r="A238" s="44"/>
       <c r="B238" s="23"/>
       <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="44">
-        <v>101716</v>
-      </c>
+      <c r="A239" s="44"/>
       <c r="B239" s="23"/>
       <c r="C239" s="19"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="44">
-        <v>101717</v>
-      </c>
+      <c r="A240" s="44"/>
       <c r="B240" s="23"/>
       <c r="C240" s="19"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="44">
-        <v>101718</v>
-      </c>
+      <c r="A241" s="44"/>
       <c r="B241" s="23"/>
       <c r="C241" s="19"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="44">
-        <v>101719</v>
-      </c>
+      <c r="A242" s="44"/>
       <c r="B242" s="23"/>
       <c r="C242" s="19"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="44">
-        <v>101720</v>
-      </c>
+      <c r="A243" s="44"/>
       <c r="B243" s="23"/>
       <c r="C243" s="19"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="44">
-        <v>101721</v>
-      </c>
+      <c r="A244" s="44"/>
       <c r="B244" s="23"/>
       <c r="C244" s="19"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="44">
-        <v>101723</v>
-      </c>
+      <c r="A245" s="44"/>
       <c r="B245" s="23"/>
       <c r="C245" s="19"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="44">
-        <v>101724</v>
-      </c>
+      <c r="A246" s="44"/>
       <c r="B246" s="23"/>
       <c r="C246" s="19"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="44">
-        <v>101725</v>
-      </c>
+      <c r="A247" s="44"/>
       <c r="B247" s="23"/>
       <c r="C247" s="19"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="44">
-        <v>101726</v>
-      </c>
+      <c r="A248" s="44"/>
       <c r="B248" s="23"/>
       <c r="C248" s="19"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="44">
-        <v>101727</v>
-      </c>
+      <c r="A249" s="44"/>
       <c r="B249" s="23"/>
       <c r="C249" s="19"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="44">
-        <v>101728</v>
-      </c>
+      <c r="A250" s="44"/>
       <c r="B250" s="23"/>
       <c r="C250" s="19"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="44">
-        <v>101729</v>
-      </c>
+      <c r="A251" s="44"/>
       <c r="B251" s="23"/>
       <c r="C251" s="19"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="44">
-        <v>101730</v>
-      </c>
+      <c r="A252" s="44"/>
       <c r="B252" s="23"/>
       <c r="C252" s="19"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="44">
-        <v>101732</v>
-      </c>
+      <c r="A253" s="44"/>
       <c r="B253" s="23"/>
       <c r="C253" s="19"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="44">
-        <v>101732</v>
-      </c>
+      <c r="A254" s="44"/>
       <c r="B254" s="23"/>
       <c r="C254" s="19"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="44">
-        <v>101733</v>
-      </c>
+      <c r="A255" s="44"/>
       <c r="B255" s="23"/>
       <c r="C255" s="19"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="44">
-        <v>101734</v>
-      </c>
+      <c r="A256" s="44"/>
       <c r="B256" s="23"/>
       <c r="C256" s="19"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="44">
-        <v>101735</v>
-      </c>
+      <c r="A257" s="44"/>
       <c r="B257" s="23"/>
       <c r="C257" s="19"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="44">
-        <v>101736</v>
-      </c>
+      <c r="A258" s="44"/>
       <c r="B258" s="23"/>
       <c r="C258" s="21"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="44">
-        <v>101739</v>
-      </c>
+      <c r="A259" s="44"/>
       <c r="B259" s="23"/>
       <c r="C259" s="21"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="44">
-        <v>101740</v>
-      </c>
+      <c r="A260" s="44"/>
       <c r="B260" s="23"/>
       <c r="C260" s="21"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="44">
-        <v>101741</v>
-      </c>
+      <c r="A261" s="44"/>
       <c r="B261" s="23"/>
       <c r="C261" s="19"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="44">
-        <v>101741</v>
-      </c>
+      <c r="A262" s="44"/>
       <c r="B262" s="23"/>
       <c r="C262" s="19"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="44">
-        <v>101742</v>
-      </c>
+      <c r="A263" s="44"/>
       <c r="B263" s="23"/>
       <c r="C263" s="21"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="44">
-        <v>101743</v>
-      </c>
+      <c r="A264" s="44"/>
       <c r="B264" s="23"/>
       <c r="C264" s="19"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="44">
-        <v>101744</v>
-      </c>
+      <c r="A265" s="44"/>
       <c r="B265" s="23"/>
       <c r="C265" s="19"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="44">
-        <v>101745</v>
-      </c>
+      <c r="A266" s="44"/>
       <c r="B266" s="23"/>
       <c r="C266" s="21"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="44">
-        <v>101746</v>
-      </c>
+      <c r="A267" s="44"/>
       <c r="B267" s="23"/>
       <c r="C267" s="21"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="44">
-        <v>101758</v>
-      </c>
+      <c r="A268" s="44"/>
       <c r="B268" s="23"/>
       <c r="C268" s="19"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="44">
-        <v>101759</v>
-      </c>
+      <c r="A269" s="44"/>
       <c r="B269" s="23"/>
       <c r="C269" s="19"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="44">
-        <v>101760</v>
-      </c>
+      <c r="A270" s="44"/>
       <c r="B270" s="23"/>
       <c r="C270" s="19"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="44">
-        <v>101765</v>
-      </c>
+      <c r="A271" s="44"/>
       <c r="B271" s="23"/>
       <c r="C271" s="19"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="44">
-        <v>101767</v>
-      </c>
+      <c r="A272" s="44"/>
       <c r="B272" s="23"/>
       <c r="C272" s="19"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="44">
-        <v>101768</v>
-      </c>
+      <c r="A273" s="44"/>
       <c r="B273" s="23"/>
       <c r="C273" s="19"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="44">
-        <v>101770</v>
-      </c>
+      <c r="A274" s="44"/>
       <c r="B274" s="23"/>
       <c r="C274" s="19"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="44">
-        <v>101771</v>
-      </c>
+      <c r="A275" s="44"/>
       <c r="B275" s="23"/>
       <c r="C275" s="19"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="44">
-        <v>101782</v>
-      </c>
+      <c r="A276" s="44"/>
       <c r="B276" s="23"/>
       <c r="C276" s="19"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="44">
-        <v>101783</v>
-      </c>
+      <c r="A277" s="44"/>
       <c r="B277" s="23"/>
       <c r="C277" s="19"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="44">
-        <v>101784</v>
-      </c>
+      <c r="A278" s="44"/>
       <c r="B278" s="23"/>
       <c r="C278" s="19"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="44">
-        <v>101785</v>
-      </c>
+      <c r="A279" s="44"/>
       <c r="B279" s="23"/>
       <c r="C279" s="19"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="44">
-        <v>101786</v>
-      </c>
+      <c r="A280" s="44"/>
       <c r="B280" s="23"/>
       <c r="C280" s="19"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="44">
-        <v>101787</v>
-      </c>
+      <c r="A281" s="44"/>
       <c r="B281" s="23"/>
       <c r="C281" s="19"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="44">
-        <v>101788</v>
-      </c>
+      <c r="A282" s="44"/>
       <c r="B282" s="23"/>
       <c r="C282" s="19"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="44">
-        <v>101789</v>
-      </c>
+      <c r="A283" s="44"/>
       <c r="B283" s="23"/>
       <c r="C283" s="19"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="44">
-        <v>101808</v>
-      </c>
+      <c r="A284" s="44"/>
       <c r="B284" s="23"/>
       <c r="C284" s="19"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="44">
-        <v>101809</v>
-      </c>
+      <c r="A285" s="44"/>
       <c r="B285" s="23"/>
       <c r="C285" s="19"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="44">
-        <v>101810</v>
-      </c>
+      <c r="A286" s="44"/>
       <c r="B286" s="23"/>
       <c r="C286" s="19"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="44">
-        <v>101817</v>
-      </c>
+      <c r="A287" s="44"/>
       <c r="B287" s="23"/>
       <c r="C287" s="19"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="44">
-        <v>101824</v>
-      </c>
+      <c r="A288" s="44"/>
       <c r="B288" s="23"/>
       <c r="C288" s="19"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="44">
-        <v>101831</v>
-      </c>
+      <c r="A289" s="44"/>
       <c r="B289" s="23"/>
       <c r="C289" s="19"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="44">
-        <v>101832</v>
-      </c>
+      <c r="A290" s="44"/>
       <c r="B290" s="23"/>
       <c r="C290" s="19"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="44">
-        <v>101833</v>
-      </c>
+      <c r="A291" s="44"/>
       <c r="B291" s="23"/>
       <c r="C291" s="19"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="44">
-        <v>101841</v>
-      </c>
+      <c r="A292" s="44"/>
       <c r="B292" s="23"/>
       <c r="C292" s="19"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="44">
-        <v>101851</v>
-      </c>
+      <c r="A293" s="44"/>
       <c r="B293" s="23"/>
       <c r="C293" s="19"/>
     </row>
